--- a/results/mp/logistic/corona/confidence/168/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,94 +49,85 @@
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>like</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -494,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,10 +493,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7465753424657534</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="C3">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D3">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,10 +572,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -613,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4074074074074074</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C4">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,19 +622,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -655,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -663,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3217054263565892</v>
+        <v>0.3294573643410852</v>
       </c>
       <c r="C5">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D5">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,69 +672,45 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="L5">
+        <v>110</v>
+      </c>
+      <c r="M5">
+        <v>110</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5">
-        <v>0.9152542372881356</v>
-      </c>
-      <c r="L5">
-        <v>54</v>
-      </c>
-      <c r="M5">
-        <v>54</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.174496644295302</v>
-      </c>
-      <c r="C6">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>123</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,21 +722,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8484848484848485</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -781,21 +748,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -807,21 +774,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.825065274151436</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L9">
-        <v>316</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>316</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -833,21 +800,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.8207547169811321</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L10">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M10">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -859,21 +826,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7816901408450704</v>
+        <v>0.7734375</v>
       </c>
       <c r="L11">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="M11">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -885,21 +852,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7804878048780488</v>
+        <v>0.75625</v>
       </c>
       <c r="L12">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -911,21 +878,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -937,21 +904,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.7578125</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -963,21 +930,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15">
         <v>0.75</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -989,21 +956,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.7375</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1015,21 +982,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1041,21 +1008,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.66</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1067,21 +1034,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6595744680851063</v>
+        <v>0.65</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1093,21 +1060,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6511627906976745</v>
+        <v>0.62</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1119,21 +1086,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6507936507936508</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1145,21 +1112,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>22</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1171,21 +1138,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.6058823529411764</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L23">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="M23">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1197,21 +1164,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>134</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5606694560669456</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L24">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1223,21 +1190,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5538461538461539</v>
+        <v>0.5606694560669456</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1249,21 +1216,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5491525423728814</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L26">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="M26">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1275,21 +1242,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5425531914893617</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1301,21 +1268,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.5142857142857142</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1327,59 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29">
-        <v>0.4719101123595505</v>
-      </c>
-      <c r="L29">
-        <v>42</v>
-      </c>
-      <c r="M29">
-        <v>42</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30">
-        <v>0.3205128205128205</v>
-      </c>
-      <c r="L30">
-        <v>25</v>
-      </c>
-      <c r="M30">
-        <v>25</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
